--- a/XLToJsonConverter/Data/Test.xlsx
+++ b/XLToJsonConverter/Data/Test.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C60C8D-9CBE-4D29-A042-CF74ED6651E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0B2BCE-896B-40E5-ACC8-8E3B99121888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -39,13 +41,46 @@
     <t>stringItem</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
     <t>bbb</t>
   </si>
   <si>
     <t>ccc</t>
+  </si>
+  <si>
+    <t>ids</t>
+  </si>
+  <si>
+    <t>arrayType1</t>
+  </si>
+  <si>
+    <t>arrayType2</t>
+  </si>
+  <si>
+    <t>id1</t>
+  </si>
+  <si>
+    <t>id2</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>zxcv</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>t3</t>
   </si>
 </sst>
 </file>
@@ -69,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -77,12 +112,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -399,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -410,38 +527,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="B4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C260BBF-101F-4A8B-AD47-F8775CC68C82}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>101</v>
+      </c>
+      <c r="F4" s="1">
+        <v>102</v>
+      </c>
+      <c r="G4" s="1">
+        <v>201</v>
+      </c>
+      <c r="H4" s="1">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6BA2F6-0902-4860-AF5E-460FCEC9F2D6}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XLToJsonConverter/Data/Test.xlsx
+++ b/XLToJsonConverter/Data/Test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0B2BCE-896B-40E5-ACC8-8E3B99121888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86AC9EB1-F73F-446D-92C8-62E2258EC2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -517,7 +517,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C260BBF-101F-4A8B-AD47-F8775CC68C82}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -586,74 +586,58 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E3" s="1">
         <v>101</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F3" s="1">
         <v>102</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G3" s="1">
         <v>201</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H3" s="1">
         <v>202</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -663,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6BA2F6-0902-4860-AF5E-460FCEC9F2D6}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
